--- a/data/trans_camb/P1423_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1423_2016_2023-Clase-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>2.183471754902623</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.039065286222298</v>
+        <v>1.039065286222297</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.713668828120734</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4762310596735905</v>
+        <v>0.2050470939248527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.272127890524561</v>
+        <v>-2.180356260090655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.0572867116104863</v>
+        <v>-0.04045786578685963</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.353882200855695</v>
+        <v>4.164349363330291</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.806469635460467</v>
+        <v>3.673799374317181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.372505043672518</v>
+        <v>3.281813559292978</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>1.773983289381347</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2514932307335113</v>
+        <v>0.2514932307335112</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6779008183253828</v>
+        <v>0.6779008183253831</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03381263123098895</v>
+        <v>-0.125262339314333</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.393061415877555</v>
+        <v>-0.3668510610126233</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05700522017676392</v>
+        <v>-0.0202498506280948</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>9.311970484030063</v>
+        <v>8.296803977557836</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.570704255432435</v>
+        <v>1.521769667638719</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.951650940683768</v>
+        <v>1.994350975121119</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.625264180692833</v>
+        <v>1.598042562013563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4927026859694224</v>
+        <v>0.3422149816945531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.778115775500783</v>
+        <v>1.553117411889049</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.616078906020969</v>
+        <v>5.679177521516434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.777576282726283</v>
+        <v>5.772486810579943</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.926247189013433</v>
+        <v>4.904817263813622</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>4.680047864991751</v>
+        <v>4.68004786499175</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.262389556087138</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.7123016352357614</v>
+        <v>0.7248368799618807</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.003072539646195086</v>
+        <v>0.05513905417871445</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6349583307797952</v>
+        <v>0.5501231795813806</v>
       </c>
     </row>
     <row r="15">
@@ -754,12 +754,14 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>21.81811721819076</v>
+      </c>
       <c r="D15" s="6" t="n">
-        <v>4.481070640039372</v>
+        <v>4.382311211895417</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.116874388841426</v>
+        <v>4.794437041577578</v>
       </c>
     </row>
     <row r="16">
@@ -777,7 +779,7 @@
         <v>3.248229866255191</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-2.983585340541478</v>
+        <v>-2.983585340541477</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.86227435240117</v>
@@ -791,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6690687795230018</v>
+        <v>0.9404296398885015</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.21357769399045</v>
+        <v>-10.02846454261432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7742861258991101</v>
+        <v>-0.3408263563139015</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.013650699312643</v>
+        <v>5.984108900235601</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.758045474386664</v>
+        <v>2.38276927191999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.376115472446328</v>
+        <v>4.293446344150042</v>
       </c>
     </row>
     <row r="19">
@@ -828,7 +830,7 @@
         <v>1.244416325586168</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.2577250628635258</v>
+        <v>-0.2577250628635257</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.3899946089981774</v>
@@ -842,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1080665138936713</v>
+        <v>0.1823588474408787</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5961788487375824</v>
+        <v>-0.5896204697130354</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1533831881007478</v>
+        <v>-0.07403461340730876</v>
       </c>
     </row>
     <row r="21">
@@ -859,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.555576024871924</v>
+        <v>3.852912925264802</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3722765851133084</v>
+        <v>0.3463665290421359</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.186588611972126</v>
+        <v>1.227337737299836</v>
       </c>
     </row>
     <row r="22">
@@ -880,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.45138992354104</v>
+        <v>2.451389923541039</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.704693039048353</v>
+        <v>2.704693039048352</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.601112723658291</v>
@@ -897,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8886838883797453</v>
+        <v>1.007271335705406</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5600060033482241</v>
+        <v>0.5011564344489609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.144401662587076</v>
+        <v>1.32974803154584</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.956402244195435</v>
+        <v>4.157757627318636</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.734555219490567</v>
+        <v>4.980018712113632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.894263051613526</v>
+        <v>3.811671482652853</v>
       </c>
     </row>
     <row r="25">
@@ -931,10 +933,10 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>1.051043620213218</v>
+        <v>1.051043620213217</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.5145734862231708</v>
+        <v>0.5145734862231705</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.7317451218692884</v>
@@ -948,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2444908300540028</v>
+        <v>0.3125811457506744</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0842714603884728</v>
+        <v>0.05938922737841142</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2725446161287858</v>
+        <v>0.3213952515386364</v>
       </c>
     </row>
     <row r="27">
@@ -965,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.285404493535278</v>
+        <v>2.49665336655335</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.163659787929121</v>
+        <v>1.198469104001685</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.331956873758449</v>
+        <v>1.307385931980308</v>
       </c>
     </row>
     <row r="28">
@@ -986,10 +988,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.888647784860291</v>
+        <v>1.88864778486029</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.666001173030798</v>
+        <v>1.6660011730308</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>2.110045407759081</v>
@@ -1003,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4095665772357299</v>
+        <v>-0.3679770510463717</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.379884853832177</v>
+        <v>-1.393421926269893</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1721518731445223</v>
+        <v>0.2606724976414415</v>
       </c>
     </row>
     <row r="30">
@@ -1020,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.335304045842517</v>
+        <v>4.486300092558203</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.443806412034841</v>
+        <v>4.479523963109766</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.062209284194295</v>
+        <v>4.014206542400736</v>
       </c>
     </row>
     <row r="31">
@@ -1037,10 +1039,10 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.5880229447747831</v>
+        <v>0.5880229447747829</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.1636972642578239</v>
+        <v>0.163697264257824</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.3016149842833877</v>
@@ -1054,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.141366804724473</v>
+        <v>-0.1120160163947409</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1227128590458709</v>
+        <v>-0.1127600862680968</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.008684695926769332</v>
+        <v>0.02786012640988167</v>
       </c>
     </row>
     <row r="33">
@@ -1071,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.955595006854999</v>
+        <v>1.972855845666221</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5121974032516283</v>
+        <v>0.5499268224321847</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6582987749647039</v>
+        <v>0.6927392714558914</v>
       </c>
     </row>
     <row r="34">
@@ -1095,7 +1097,7 @@
         <v>4.924691047491195</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.496707306681457</v>
+        <v>0.4967073066814598</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1.402320788546989</v>
@@ -1109,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.858623873300061</v>
+        <v>1.545408599746203</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.873941837206351</v>
+        <v>-1.775918569290285</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6380217233134899</v>
+        <v>-0.6786909974523303</v>
       </c>
     </row>
     <row r="36">
@@ -1126,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.95776191719029</v>
+        <v>10.35899872906113</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.877170493599531</v>
+        <v>2.709242300881453</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.604987518200262</v>
+        <v>3.454519542039342</v>
       </c>
     </row>
     <row r="37">
@@ -1146,7 +1148,7 @@
         <v>6.59182180650596</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.06593279512076342</v>
+        <v>0.06593279512076378</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.2295022074939524</v>
@@ -1160,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.03834988632524894</v>
+        <v>-0.1214478879623172</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2227925003986884</v>
+        <v>-0.2058972659051169</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.09497555364855299</v>
+        <v>-0.1027976274120842</v>
       </c>
     </row>
     <row r="39">
@@ -1178,10 +1180,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>0.468434170272262</v>
+        <v>0.4296713619453376</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7098243086303054</v>
+        <v>0.6842195631472716</v>
       </c>
     </row>
     <row r="40">
@@ -1199,10 +1201,10 @@
         <v>2.654767048497395</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.382778799967385</v>
+        <v>1.382778799967382</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.016405462549105</v>
+        <v>2.016405462549103</v>
       </c>
     </row>
     <row r="41">
@@ -1213,13 +1215,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.842292330532093</v>
+        <v>1.738244242810632</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.2510389570599009</v>
+        <v>0.1106885489239073</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.280178917666152</v>
+        <v>1.336798632542967</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1232,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.544046719871511</v>
+        <v>3.494552111213704</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.512500822305962</v>
+        <v>2.525602724606855</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.759687855856359</v>
+        <v>2.81299297449257</v>
       </c>
     </row>
     <row r="43">
@@ -1250,10 +1252,10 @@
         <v>1.273743035817628</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.2008344134234271</v>
+        <v>0.2008344134234266</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.4446006403646355</v>
+        <v>0.4446006403646349</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1266,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.7387497017547092</v>
+        <v>0.6826380239776244</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.03285663811981447</v>
+        <v>0.01960668481918445</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2556473434302374</v>
+        <v>0.2737155118048247</v>
       </c>
     </row>
     <row r="45">
@@ -1281,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.981364913791364</v>
+        <v>1.993154852568858</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4013653159894273</v>
+        <v>0.4226361601361665</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6558088325621919</v>
+        <v>0.6918762017875488</v>
       </c>
     </row>
     <row r="46">
